--- a/biology/Microbiologie/Philasterida/Philasterida.xlsx
+++ b/biology/Microbiologie/Philasterida/Philasterida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Philasterida sont un ordre de Ciliés de la classe des Oligohymenophorea.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ordre Philasterida se caractérise par un paroral plus court que les autres structures buccales, généralement par une réduction des segments paroraux a et c et par une scutica séparée et postérieure au paroral.
-[1].
+.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (30 septembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (30 septembre 2023) :
 Cinetochilidae Perty, 1852
 Cohnilembidae Kahl, 1933
 Cryptochilidae Berger in Corliss, 1979
@@ -561,14 +577,14 @@
 Thigmophryidae Chatton &amp; Lwoff, 1926
 Thyrophylacidae Bergen in Corliss, 1961
 Uronematidae Thompson, 1964
-Selon GBIF       (30 septembre 2023)[3] :
+Selon GBIF       (30 septembre 2023) :
 Entodiscidae
 Orchitophryidae
 Paralembidae
 Philasteridae
 Schizocaryidae
 Thyrophylacidae
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Cinetochilidae
 Cohnilembidae
 Cryptochilidae
@@ -612,9 +628,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Philasterida Small, 1967[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Philasterida Small, 1967.
 </t>
         </is>
       </c>
